--- a/Assignment_Q2_QnA.xlsx
+++ b/Assignment_Q2_QnA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NYP_PDC2\IT109_Azure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD67475-D263-477D-B037-EA05C4C1287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7BD0A-65A8-4F3E-8860-40128C3ED8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{94E7E3D3-B904-4B61-814B-F253AE63C08D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>You can contact our customer support team via email at OnlineSupport@@foodcompany.com or through our online chat.</t>
-  </si>
-  <si>
-    <t>QnA Number</t>
   </si>
 </sst>
 </file>
@@ -542,192 +539,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098028C3-7689-45E3-8BA0-A0ECF1776564}">
-  <dimension ref="A2:C17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" customWidth="1"/>
-    <col min="3" max="3" width="100.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="100.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>14</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Assignment_Q2_QnA.xlsx
+++ b/Assignment_Q2_QnA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NYP_PDC2\IT109_Azure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7BD0A-65A8-4F3E-8860-40128C3ED8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2876488-EE3F-45D3-AACB-52352B1B587E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{94E7E3D3-B904-4B61-814B-F253AE63C08D}"/>
   </bookViews>
@@ -44,88 +44,88 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>How can I track my order?</t>
-  </si>
-  <si>
     <t>To track your order, please enter your order number on our tracking page [link].</t>
   </si>
   <si>
-    <t>What is the return policy?</t>
-  </si>
-  <si>
     <t>You can return any unopened items within 30 days of purchase. Please visit our returns page for more details.</t>
   </si>
   <si>
-    <t>Do you offer free shipping?</t>
-  </si>
-  <si>
     <t>Yes, we offer free shipping on orders over $50.</t>
   </si>
   <si>
-    <t>Can I change my delivery address after placing an order?</t>
-  </si>
-  <si>
     <t>Yes, you can change your delivery address within 24 hours of placing the order by contacting our support team.</t>
   </si>
   <si>
-    <t>Are your products halal-certified?</t>
-  </si>
-  <si>
     <t>Yes, all our products are halal-certified.</t>
   </si>
   <si>
-    <t>Do you ship internationally?</t>
-  </si>
-  <si>
     <t>Currently, we only ship within Asia.</t>
   </si>
   <si>
-    <t>How can I apply a discount code?</t>
-  </si>
-  <si>
     <t>You can apply a discount code at checkout. Simply enter the code in the designated field.</t>
   </si>
   <si>
-    <t>What payment methods do you accept?</t>
-  </si>
-  <si>
     <t>We accept credit cards, debit cards, and PayPal.</t>
   </si>
   <si>
-    <t>How do I reset my account password?</t>
-  </si>
-  <si>
     <t>To reset your password, click on 'Forgot Password' on the login page and follow the instructions.</t>
   </si>
   <si>
-    <t>Are there any membership benefits?</t>
-  </si>
-  <si>
     <t>Yes, members receive exclusive discounts, early access to sales, and more. Join our membership program to enjoy these benefits.</t>
   </si>
   <si>
-    <t>Can I change my order after placing it?</t>
-  </si>
-  <si>
     <t>You can change your order within 24 hours of placing it by contacting our customer support team.</t>
   </si>
   <si>
-    <t>Do you offer discounts for bulk purchases?</t>
-  </si>
-  <si>
     <t>Yes, we offer discounts for bulk purchases. Please contact our sales team for more information.</t>
   </si>
   <si>
-    <t>How can I subscribe to your newsletter?</t>
-  </si>
-  <si>
     <t>You can subscribe to our newsletter by entering your email address in the subscription box on our website.</t>
   </si>
   <si>
-    <t xml:space="preserve">How can I contact customer support?	</t>
-  </si>
-  <si>
     <t>You can contact our customer support team via email at OnlineSupport@@foodcompany.com or through our online chat.</t>
+  </si>
+  <si>
+    <t>FoodFAQ - How can I track my order?</t>
+  </si>
+  <si>
+    <t>FoodFAQ - Can I change my order after placing it?</t>
+  </si>
+  <si>
+    <t>FoodFAQ - Can I change my delivery address after placing an order?</t>
+  </si>
+  <si>
+    <t>FoodFAQ - What is the return policy?</t>
+  </si>
+  <si>
+    <t>FoodFAQ - Do you offer free shipping?</t>
+  </si>
+  <si>
+    <t>FoodFAQ - Are your products halal-certified?</t>
+  </si>
+  <si>
+    <t>FoodFAQ - Do you ship internationally?</t>
+  </si>
+  <si>
+    <t>FoodFAQ - How can I apply a discount code?</t>
+  </si>
+  <si>
+    <t>FoodFAQ - What payment methods do you accept?</t>
+  </si>
+  <si>
+    <t>FoodFAQ - How do I reset my account password?</t>
+  </si>
+  <si>
+    <t>FoodFAQ - Are there any membership benefits?</t>
+  </si>
+  <si>
+    <t>FoodFAQ - Do you offer discounts for bulk purchases?</t>
+  </si>
+  <si>
+    <t>FoodFAQ - How can I subscribe to your newsletter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodFAQ - How can I contact customer support?	</t>
   </si>
 </sst>
 </file>
@@ -541,11 +541,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098028C3-7689-45E3-8BA0-A0ECF1776564}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" customWidth="1"/>
     <col min="2" max="2" width="100.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -558,123 +560,123 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
